--- a/static/images/extracted_data.xlsx
+++ b/static/images/extracted_data.xlsx
@@ -443,31 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>€
-X Post New to X?
-cee Sign up now to get your own personalized timeline!
-Ps Fy NASAG
-—_ ant Gazz»
-NASA and Boeing welcomed #Starliner back to Earth at 12:01am ET
-(0401 UTC) on Saturday, Sept. 7, following the uncrewed spacecraft's @ Sign up with Apple
-landing in New Mexico—concluding its flight test to the @Space Station: =
-go.nasa.gov/3Z9ZPaF
-Create account
-- —
-By signing up, you agree to the Terms of Service and
-COR Privacy Policy, including Cookie Use.
-Something went wrong. Try reloading.
-- Terms of Service Privacy Policy Cookie Policy
-’ n Accessibility Adsinfo More+» ©2024X Corp.
-4
-—
-10:46 AM - Sep 7, 2024 - 390.6K Views
-430Reposts 46Quotes 3,070Likes 43 Bookmarks
-[o) u iv) 43 4
-Gt Most relevant v
-Welcome to x.com! x
-We are letting you know that we are changing our URL, but your privacy and data protection settings remain the same.
-For more details, see our Privacy Policy: https: //x.com/en/privacy</t>
+          <t>NASA@NASANASA and Boeing welcomed #Starliner back to Earth at 12:01am ET (0401 UTC) on Saturday, Sept. 7, following the uncrewed spacecraft's landing in New Mexico—concluding its flight test to the @Space_Station: https://go.nasa.gov/3Z9ZPaFread image descriptionALT10:46 AM · Sep 7, 2024·399.2K Views446 Reposts47 Quotes3,169 Likes48 Bookmarks48Most relevant</t>
         </is>
       </c>
     </row>
